--- a/data/trans_orig/P19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>54001</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42229</v>
+        <v>41949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68332</v>
+        <v>68204</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1977981629593033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1546789906752954</v>
+        <v>0.1536554758492926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2502924613509627</v>
+        <v>0.2498215273572253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -765,19 +765,19 @@
         <v>59109</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46093</v>
+        <v>47034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74170</v>
+        <v>74381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2266113046536855</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1767120976854427</v>
+        <v>0.1803193005568066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2843538686376193</v>
+        <v>0.2851601144016432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -786,19 +786,19 @@
         <v>113110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96251</v>
+        <v>95270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134742</v>
+        <v>135047</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2118762609225999</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1802969554145958</v>
+        <v>0.1784588052554447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2523982260231639</v>
+        <v>0.2529693884114537</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>219009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>204678</v>
+        <v>204806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230781</v>
+        <v>231061</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8022018370406967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7497075386490373</v>
+        <v>0.7501784726427745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8453210093247044</v>
+        <v>0.8463445241507073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -836,19 +836,19 @@
         <v>201729</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186668</v>
+        <v>186457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>214745</v>
+        <v>213804</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7733886953463145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7156461313623806</v>
+        <v>0.7148398855983568</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8232879023145573</v>
+        <v>0.8196806994431934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>404</v>
@@ -857,19 +857,19 @@
         <v>420738</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>399106</v>
+        <v>398801</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437597</v>
+        <v>438578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7881237390774001</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.747601773976836</v>
+        <v>0.7470306115885463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8197030445854041</v>
+        <v>0.8215411947445553</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>141612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121805</v>
+        <v>121121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163587</v>
+        <v>163119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2872007463266023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2470323781979803</v>
+        <v>0.2456431830109618</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3317697977316201</v>
+        <v>0.3308191757220895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -982,19 +982,19 @@
         <v>175833</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154507</v>
+        <v>156638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>197581</v>
+        <v>198425</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3495515794321563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3071567575760354</v>
+        <v>0.3113936366131952</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3927868791125417</v>
+        <v>0.3944652242097239</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>307</v>
@@ -1003,19 +1003,19 @@
         <v>317444</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286907</v>
+        <v>285254</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>346136</v>
+        <v>347489</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3186875439725873</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2880305036108722</v>
+        <v>0.2863713062506016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3474910840123618</v>
+        <v>0.3488495485506039</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>351463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329488</v>
+        <v>329956</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>371270</v>
+        <v>371954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7127992536733977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6682302022683804</v>
+        <v>0.6691808242779106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7529676218020201</v>
+        <v>0.7543568169890382</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>323</v>
@@ -1053,19 +1053,19 @@
         <v>327191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>305443</v>
+        <v>304599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348517</v>
+        <v>346386</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6504484205678437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6072131208874583</v>
+        <v>0.6055347757902761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6928432424239642</v>
+        <v>0.6886063633868047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>656</v>
@@ -1074,19 +1074,19 @@
         <v>678655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>649963</v>
+        <v>648610</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709192</v>
+        <v>710845</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6813124560274127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6525089159876382</v>
+        <v>0.6511504514493961</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7119694963891278</v>
+        <v>0.7136286937493984</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>71284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56666</v>
+        <v>56689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86463</v>
+        <v>87861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2235701876096302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1777234625758618</v>
+        <v>0.1777935523655457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2711743472188992</v>
+        <v>0.2755589995156331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -1199,19 +1199,19 @@
         <v>94783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78833</v>
+        <v>79558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111454</v>
+        <v>112126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2825865837712669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2350331111064569</v>
+        <v>0.2371939972260399</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3322895580773457</v>
+        <v>0.3342928996757233</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -1220,19 +1220,19 @@
         <v>166067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144863</v>
+        <v>144685</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188274</v>
+        <v>190554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2538255458960685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2214162908022695</v>
+        <v>0.2211434935479917</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2877678005917206</v>
+        <v>0.2912525367362074</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>247562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232383</v>
+        <v>230985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262180</v>
+        <v>262157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7764298123903699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7288256527811009</v>
+        <v>0.7244410004843668</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8222765374241382</v>
+        <v>0.8222064476344543</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -1270,19 +1270,19 @@
         <v>240629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223958</v>
+        <v>223286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256579</v>
+        <v>255854</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7174134162287331</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6677104419226543</v>
+        <v>0.6657071003242767</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7649668888935431</v>
+        <v>0.7628060027739598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>479</v>
@@ -1291,19 +1291,19 @@
         <v>488191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>465984</v>
+        <v>463704</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>509395</v>
+        <v>509573</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7461744541039315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7122321994082793</v>
+        <v>0.7087474632637927</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7785837091977305</v>
+        <v>0.7788565064520085</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>94858</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79154</v>
+        <v>79316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113354</v>
+        <v>112548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2644714426164633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2206860415546886</v>
+        <v>0.2211377042800596</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3160396702609725</v>
+        <v>0.3137930222998517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -1416,19 +1416,19 @@
         <v>122451</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105177</v>
+        <v>105892</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140178</v>
+        <v>139545</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3296520235934444</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2831489875399507</v>
+        <v>0.2850727107190937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3773742037116649</v>
+        <v>0.3756708539767081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>220</v>
@@ -1437,19 +1437,19 @@
         <v>217309</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192889</v>
+        <v>193945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243894</v>
+        <v>240061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.297632403728452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2641858801936416</v>
+        <v>0.2656325056187597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3340427507757887</v>
+        <v>0.3287940781608159</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>263813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>245317</v>
+        <v>246123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>279517</v>
+        <v>279355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7355285573835366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6839603297390275</v>
+        <v>0.6862069777001483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7793139584453113</v>
+        <v>0.7788622957199405</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>258</v>
@@ -1487,19 +1487,19 @@
         <v>249005</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231278</v>
+        <v>231911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266279</v>
+        <v>265564</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6703479764065556</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.622625796288335</v>
+        <v>0.6243291460232918</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7168510124600492</v>
+        <v>0.7149272892809063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>526</v>
@@ -1508,19 +1508,19 @@
         <v>512818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>486233</v>
+        <v>490066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>537238</v>
+        <v>536182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.702367596271548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6659572492242112</v>
+        <v>0.6712059218391838</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7358141198063584</v>
+        <v>0.7343674943812404</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>68057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56377</v>
+        <v>55636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82192</v>
+        <v>81287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3347478827085853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2772968698912266</v>
+        <v>0.2736547585468978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4042710791593118</v>
+        <v>0.3998209208377229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -1633,19 +1633,19 @@
         <v>59962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47509</v>
+        <v>47608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73759</v>
+        <v>74856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2887377989027666</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.22877253896568</v>
+        <v>0.2292524730410617</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3551760473382644</v>
+        <v>0.3604603116108777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1654,19 +1654,19 @@
         <v>128019</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110286</v>
+        <v>110091</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>147949</v>
+        <v>147516</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3114987854027107</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2683508939827743</v>
+        <v>0.2678766192972407</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3599951075951064</v>
+        <v>0.358941865149506</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>135251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121116</v>
+        <v>122021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146931</v>
+        <v>147672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6652521172914146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.595728920840687</v>
+        <v>0.6001790791622772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7227031301087732</v>
+        <v>0.7263452414531022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1704,19 +1704,19 @@
         <v>147706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133909</v>
+        <v>132812</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160159</v>
+        <v>160060</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7112622010972335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6448239526617358</v>
+        <v>0.6395396883891222</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.77122746103432</v>
+        <v>0.7707475269589386</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>278</v>
@@ -1725,19 +1725,19 @@
         <v>282957</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263027</v>
+        <v>263460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>300690</v>
+        <v>300885</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6885012145972893</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6400048924048939</v>
+        <v>0.641058134850494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7316491060172258</v>
+        <v>0.7321233807027595</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>53083</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41707</v>
+        <v>41666</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66216</v>
+        <v>67103</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1960149444839385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1540096101702849</v>
+        <v>0.1538547387421512</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2445095797025902</v>
+        <v>0.247784945295538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -1850,19 +1850,19 @@
         <v>95579</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80344</v>
+        <v>79987</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113466</v>
+        <v>111668</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.343632247257071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2888572466223695</v>
+        <v>0.2875757637342317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4079393850434869</v>
+        <v>0.4014737013118626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>147</v>
@@ -1871,19 +1871,19 @@
         <v>148662</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128753</v>
+        <v>128931</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173806</v>
+        <v>170003</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2708095392385851</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2345416791915256</v>
+        <v>0.234867005086119</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3166133323534097</v>
+        <v>0.3096839574298075</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>217728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204595</v>
+        <v>203708</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229104</v>
+        <v>229145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8039850555160615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7554904202974098</v>
+        <v>0.7522150547044612</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8459903898297148</v>
+        <v>0.8461452612578488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -1921,19 +1921,19 @@
         <v>182565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164678</v>
+        <v>166476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197800</v>
+        <v>198157</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6563677527429289</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5920606149565131</v>
+        <v>0.5985262986881374</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7111427533776303</v>
+        <v>0.7124242362657681</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>389</v>
@@ -1942,19 +1942,19 @@
         <v>400293</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>375149</v>
+        <v>378952</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>420202</v>
+        <v>420024</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7291904607614148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6833866676465904</v>
+        <v>0.6903160425701927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7654583208084744</v>
+        <v>0.7651329949138811</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>177336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154098</v>
+        <v>155395</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201012</v>
+        <v>198532</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2887659661728308</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2509275411507803</v>
+        <v>0.2530395436201557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3273196010924052</v>
+        <v>0.3232820207499344</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>238</v>
@@ -2067,19 +2067,19 @@
         <v>243102</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>220341</v>
+        <v>219705</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>268389</v>
+        <v>266847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3809066830863465</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3452429668748732</v>
+        <v>0.3442470456060013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4205273084118805</v>
+        <v>0.4181122872781612</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>411</v>
@@ -2088,19 +2088,19 @@
         <v>420437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>387282</v>
+        <v>390317</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>452143</v>
+        <v>455048</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3357230564114315</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3092482058475144</v>
+        <v>0.3116714074893968</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3610400937469876</v>
+        <v>0.3633596337100033</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>436779</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>413103</v>
+        <v>415583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>460017</v>
+        <v>458720</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7112340338271692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6726803989075933</v>
+        <v>0.6767179792500656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7490724588492197</v>
+        <v>0.7469604563798442</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>383</v>
@@ -2138,19 +2138,19 @@
         <v>395117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>369830</v>
+        <v>371372</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>417878</v>
+        <v>418514</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6190933169136535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5794726915881194</v>
+        <v>0.5818877127218387</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6547570331251269</v>
+        <v>0.6557529543939985</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>807</v>
@@ -2159,19 +2159,19 @@
         <v>831897</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>800191</v>
+        <v>797286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>865052</v>
+        <v>862017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6642769435885686</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6389599062530125</v>
+        <v>0.6366403662899977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6907517941524857</v>
+        <v>0.6883285925106033</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>154688</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133269</v>
+        <v>133984</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178581</v>
+        <v>177709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2079708243370939</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1791741865542044</v>
+        <v>0.1801353828577555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.240095027056462</v>
+        <v>0.2389221860986126</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -2284,19 +2284,19 @@
         <v>208177</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>182748</v>
+        <v>182619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>235755</v>
+        <v>234857</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2656980341793473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2332427232788058</v>
+        <v>0.2330775252155369</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3008951907928304</v>
+        <v>0.2997493199545998</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>350</v>
@@ -2305,19 +2305,19 @@
         <v>362865</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>328165</v>
+        <v>329606</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>396243</v>
+        <v>394590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2375849963963502</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2148649814893877</v>
+        <v>0.2158087588017088</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2594389692368205</v>
+        <v>0.2583567148001039</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>589107</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>565214</v>
+        <v>566086</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>610526</v>
+        <v>609811</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7920291756629061</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7599049729435384</v>
+        <v>0.7610778139013875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8208258134457956</v>
+        <v>0.8198646171422446</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>550</v>
@@ -2355,19 +2355,19 @@
         <v>575334</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>547756</v>
+        <v>548654</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>600763</v>
+        <v>600892</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7343019658206527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6991048092071696</v>
+        <v>0.7002506800454001</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7667572767211942</v>
+        <v>0.7669224747844631</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1131</v>
@@ -2376,19 +2376,19 @@
         <v>1164441</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1131063</v>
+        <v>1132716</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1199141</v>
+        <v>1197700</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7624150036036498</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7405610307631798</v>
+        <v>0.7416432851998962</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7851350185106128</v>
+        <v>0.7841912411982916</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>814918</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2487820454285269</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1036</v>
@@ -2501,19 +2501,19 @@
         <v>1058996</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3134726511414416</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1839</v>
@@ -2522,19 +2522,19 @@
         <v>1873914</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.281626297462054</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2460713</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2408469</v>
+        <v>2410358</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2509064</v>
+        <v>2511277</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7512179545714731</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7352688085694074</v>
+        <v>0.7358455471636501</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7659788646673185</v>
+        <v>0.7666542993545989</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2260</v>
@@ -2572,19 +2572,19 @@
         <v>2319276</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2265327</v>
+        <v>2269184</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2371338</v>
+        <v>2377274</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6865273488585584</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6705577958468655</v>
+        <v>0.6716997136940813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.701938156768023</v>
+        <v>0.7036953861949803</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4670</v>
@@ -2593,19 +2593,19 @@
         <v>4779990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4709638</v>
+        <v>4704781</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4853617</v>
+        <v>4849073</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7183737025379461</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7078006893492216</v>
+        <v>0.7070708386755965</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7294390536280203</v>
+        <v>0.7287560509686304</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>75396</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60961</v>
+        <v>60080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90671</v>
+        <v>91296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2568085758847246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2076429134058753</v>
+        <v>0.2046411904322913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3088371830923345</v>
+        <v>0.3109649983275039</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -2962,19 +2962,19 @@
         <v>76939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62400</v>
+        <v>61695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95733</v>
+        <v>93861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.267852828542033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2172377065306253</v>
+        <v>0.2147830568294095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3332796039459117</v>
+        <v>0.326762011398237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -2983,19 +2983,19 @@
         <v>152335</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130896</v>
+        <v>132347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174856</v>
+        <v>174793</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2622703952281542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2253590388514172</v>
+        <v>0.2278578005204606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3010426989327908</v>
+        <v>0.3009342737509573</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>218192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202917</v>
+        <v>202292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232627</v>
+        <v>233508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7431914241152754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6911628169076656</v>
+        <v>0.6890350016724962</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.792357086594125</v>
+        <v>0.7953588095677088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -3033,19 +3033,19 @@
         <v>210306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191512</v>
+        <v>193384</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>224845</v>
+        <v>225550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.732147171457967</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6667203960540884</v>
+        <v>0.673237988601763</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7827622934693748</v>
+        <v>0.7852169431705905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>395</v>
@@ -3054,19 +3054,19 @@
         <v>428498</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>405977</v>
+        <v>406040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>449937</v>
+        <v>448486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7377296047718458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6989573010672091</v>
+        <v>0.6990657262490427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7746409611485826</v>
+        <v>0.7721421994795394</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>124857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105754</v>
+        <v>104580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145230</v>
+        <v>146314</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2469839413948238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2091962765307719</v>
+        <v>0.2068738933883186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2872848231414639</v>
+        <v>0.2894294033768348</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -3179,19 +3179,19 @@
         <v>133790</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114622</v>
+        <v>112713</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155387</v>
+        <v>155179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2554398878141391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2188426923032714</v>
+        <v>0.2151979423341967</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2966723048308426</v>
+        <v>0.2962759868158755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>242</v>
@@ -3200,19 +3200,19 @@
         <v>258648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226957</v>
+        <v>232335</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286039</v>
+        <v>289320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2512868289028094</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2204982060346405</v>
+        <v>0.2257226332456458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.27789872101553</v>
+        <v>0.2810862221610854</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>380670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>360297</v>
+        <v>359213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>399773</v>
+        <v>400947</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7530160586051762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7127151768585361</v>
+        <v>0.7105705966231654</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7908037234692281</v>
+        <v>0.7931261066116818</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -3250,19 +3250,19 @@
         <v>389975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>368378</v>
+        <v>368586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>409143</v>
+        <v>411052</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7445601121858608</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7033276951691574</v>
+        <v>0.7037240131841245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7811573076967285</v>
+        <v>0.7848020576658032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>710</v>
@@ -3271,19 +3271,19 @@
         <v>770644</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>743253</v>
+        <v>739972</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>802335</v>
+        <v>796957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7487131710971906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7221012789844701</v>
+        <v>0.7189137778389145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7795017939653596</v>
+        <v>0.7742773667543542</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>75424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60263</v>
+        <v>60744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92013</v>
+        <v>92096</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2337406223111156</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1867559599888634</v>
+        <v>0.1882451752852595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2851485816121959</v>
+        <v>0.2854071593295625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -3396,19 +3396,19 @@
         <v>122897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105484</v>
+        <v>103704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141322</v>
+        <v>140040</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3603800970882954</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3093202282179395</v>
+        <v>0.3040991108848524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4144088396131406</v>
+        <v>0.4106515681670321</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>186</v>
@@ -3417,19 +3417,19 @@
         <v>198321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175101</v>
+        <v>172300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223648</v>
+        <v>222875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.298809821856321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2638248109324597</v>
+        <v>0.2596036994602263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3369699978999284</v>
+        <v>0.3358049797141083</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>247259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230670</v>
+        <v>230587</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262420</v>
+        <v>261939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7662593776888844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7148514183878041</v>
+        <v>0.7145928406704376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8132440400111365</v>
+        <v>0.8117548247147406</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -3467,19 +3467,19 @@
         <v>218123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199698</v>
+        <v>200980</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>235536</v>
+        <v>237316</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6396199029117046</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5855911603868594</v>
+        <v>0.589348431832968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6906797717820605</v>
+        <v>0.6959008891151476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>449</v>
@@ -3488,19 +3488,19 @@
         <v>465382</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>440055</v>
+        <v>440828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>488602</v>
+        <v>491403</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7011901781436789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6630300021000712</v>
+        <v>0.6641950202858917</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7361751890675403</v>
+        <v>0.7403963005397738</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>99918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83368</v>
+        <v>83176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118092</v>
+        <v>118554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.267172788857077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2229205619444266</v>
+        <v>0.2224073206934046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3157685851450587</v>
+        <v>0.3170045555231437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -3613,19 +3613,19 @@
         <v>101218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82402</v>
+        <v>84115</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118908</v>
+        <v>117771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2602330088716494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2118579174248156</v>
+        <v>0.2162599804065933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3057144474749714</v>
+        <v>0.302791849725382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -3634,19 +3634,19 @@
         <v>201136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177298</v>
+        <v>175616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227622</v>
+        <v>226863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2636348190163219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2323895063386172</v>
+        <v>0.2301851527528137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2983508551722209</v>
+        <v>0.297356049086194</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>274064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255890</v>
+        <v>255428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290614</v>
+        <v>290806</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.732827211142923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6842314148549413</v>
+        <v>0.6829954444768566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7770794380555734</v>
+        <v>0.7775926793065955</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>274</v>
@@ -3684,19 +3684,19 @@
         <v>287733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>270043</v>
+        <v>271180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306549</v>
+        <v>304836</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7397669911283506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6942855525250287</v>
+        <v>0.697208150274618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7881420825751845</v>
+        <v>0.7837400195934068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>525</v>
@@ -3705,19 +3705,19 @@
         <v>561797</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>535311</v>
+        <v>536070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>585635</v>
+        <v>587317</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7363651809836782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7016491448277792</v>
+        <v>0.7026439509138059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7676104936613828</v>
+        <v>0.7698148472471863</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>41320</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30353</v>
+        <v>31271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55886</v>
+        <v>55041</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1943409926675048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1427586343763722</v>
+        <v>0.1470743763607049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2628489138333369</v>
+        <v>0.2588724028524756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -3830,19 +3830,19 @@
         <v>71393</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58126</v>
+        <v>58267</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86522</v>
+        <v>86475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3265520082288039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.265869062839356</v>
+        <v>0.266515095827435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3957496215474401</v>
+        <v>0.3955384330451284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -3851,19 +3851,19 @@
         <v>112713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95242</v>
+        <v>94578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132235</v>
+        <v>131027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2613675840778817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2208524885948064</v>
+        <v>0.2193142178758476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.306634619100224</v>
+        <v>0.3038352730122493</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>171298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156732</v>
+        <v>157577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182265</v>
+        <v>181347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8056590073324952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7371510861666631</v>
+        <v>0.7411275971475243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.857241365623628</v>
+        <v>0.852925623639295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -3901,19 +3901,19 @@
         <v>147234</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>132105</v>
+        <v>132152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160501</v>
+        <v>160360</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6734479917711961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6042503784525599</v>
+        <v>0.6044615669548716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7341309371606441</v>
+        <v>0.7334849041725656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -3922,19 +3922,19 @@
         <v>318532</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299010</v>
+        <v>300218</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>336003</v>
+        <v>336667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7386324159221183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.693365380899776</v>
+        <v>0.6961647269877511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7791475114051938</v>
+        <v>0.7806857821241525</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>83580</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67741</v>
+        <v>67776</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99068</v>
+        <v>100022</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3050586319568108</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2472454182352816</v>
+        <v>0.2473732522816501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3615879459171516</v>
+        <v>0.3650703746624271</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -4047,19 +4047,19 @@
         <v>84973</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69352</v>
+        <v>69110</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100790</v>
+        <v>101482</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3034420816629736</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2476595036952684</v>
+        <v>0.2467947077377216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3599233344865388</v>
+        <v>0.3623963728919791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -4068,19 +4068,19 @@
         <v>168553</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145148</v>
+        <v>148496</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191178</v>
+        <v>193795</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3042415301776297</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2619939354851814</v>
+        <v>0.2680368119155801</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3450792732277527</v>
+        <v>0.3498035114777627</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>190401</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174913</v>
+        <v>173959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206240</v>
+        <v>206205</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6949413680431892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6384120540828484</v>
+        <v>0.6349296253375729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7527545817647182</v>
+        <v>0.75262674771835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -4118,19 +4118,19 @@
         <v>195058</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179241</v>
+        <v>178549</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210679</v>
+        <v>210921</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6965579183370264</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6400766655134611</v>
+        <v>0.6376036271080205</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7523404963047317</v>
+        <v>0.7532052922622783</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>375</v>
@@ -4139,19 +4139,19 @@
         <v>385459</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>362834</v>
+        <v>360217</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>408864</v>
+        <v>405516</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6957584698223703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6549207267722472</v>
+        <v>0.650196488522237</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7380060645148189</v>
+        <v>0.7319631880844194</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>161356</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139020</v>
+        <v>141110</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185508</v>
+        <v>185591</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2434510652132743</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2097510509833676</v>
+        <v>0.2129029859263224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2798898442692878</v>
+        <v>0.2800151991910008</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>215</v>
@@ -4264,19 +4264,19 @@
         <v>233063</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>206378</v>
+        <v>207091</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>260153</v>
+        <v>257920</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3358965751730886</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2974378458074455</v>
+        <v>0.298464662064188</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3749391341835502</v>
+        <v>0.3717217344711832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>367</v>
@@ -4285,19 +4285,19 @@
         <v>394419</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>362903</v>
+        <v>357726</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>430415</v>
+        <v>429342</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2907322481084471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2675014269813535</v>
+        <v>0.2636847266758822</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3172653930003489</v>
+        <v>0.3164739336779084</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>501432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>477280</v>
+        <v>477197</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>523768</v>
+        <v>521678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7565489347867258</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7201101557307122</v>
+        <v>0.7199848008089991</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7902489490166323</v>
+        <v>0.7870970140736775</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>421</v>
@@ -4335,19 +4335,19 @@
         <v>460790</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>433700</v>
+        <v>435933</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>487475</v>
+        <v>486762</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6641034248269114</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.62506086581645</v>
+        <v>0.6282782655288174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7025621541925546</v>
+        <v>0.7015353379358122</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>887</v>
@@ -4356,19 +4356,19 @@
         <v>962222</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>926226</v>
+        <v>927299</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>993738</v>
+        <v>998915</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7092677518915529</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6827346069996511</v>
+        <v>0.6835260663220916</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7324985730186462</v>
+        <v>0.7363152733241177</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>182744</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>159153</v>
+        <v>160556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210882</v>
+        <v>207929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2345588109191981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2042786391617535</v>
+        <v>0.2060797616067536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2706740603281944</v>
+        <v>0.266883823046079</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>232</v>
@@ -4481,19 +4481,19 @@
         <v>254583</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227057</v>
+        <v>227431</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>281223</v>
+        <v>281033</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3090151543836837</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2756042133288345</v>
+        <v>0.2760580284420483</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3413509196811499</v>
+        <v>0.3411202627884569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>403</v>
@@ -4502,19 +4502,19 @@
         <v>437327</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>400834</v>
+        <v>397828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>472642</v>
+        <v>477398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2728264009251782</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2500600945191434</v>
+        <v>0.2481846405774635</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2948576736186659</v>
+        <v>0.2978242962586438</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>596354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>568216</v>
+        <v>571169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>619945</v>
+        <v>618542</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7654411890808019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7293259396718056</v>
+        <v>0.733116176953921</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7957213608382462</v>
+        <v>0.7939202383932461</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>525</v>
@@ -4552,19 +4552,19 @@
         <v>569270</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>542630</v>
+        <v>542820</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>596796</v>
+        <v>596422</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6909848456163162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6586490803188502</v>
+        <v>0.6588797372115431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7243957866711656</v>
+        <v>0.7239419715579517</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1071</v>
@@ -4573,19 +4573,19 @@
         <v>1165624</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1130309</v>
+        <v>1125553</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1202117</v>
+        <v>1205123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7271735990748217</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.705142326381334</v>
+        <v>0.7021757037413558</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7499399054808565</v>
+        <v>0.7518153594225365</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>844597</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>793873</v>
+        <v>790325</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>896639</v>
+        <v>896071</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2466503963573812</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.231837521124972</v>
+        <v>0.2308013152687392</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2618486494557353</v>
+        <v>0.2616827032574002</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>996</v>
@@ -4698,19 +4698,19 @@
         <v>1078857</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1020450</v>
+        <v>1020857</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1131990</v>
+        <v>1129145</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3032758273436963</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2868571853908241</v>
+        <v>0.2869717096285596</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3182121181710253</v>
+        <v>0.3174122099047941</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1793</v>
@@ -4719,19 +4719,19 @@
         <v>1923453</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1854347</v>
+        <v>1845644</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2013411</v>
+        <v>2002922</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2755027917347082</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2656045505033621</v>
+        <v>0.2643578956759631</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2883878306476649</v>
+        <v>0.2868853344656943</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2579669</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2527627</v>
+        <v>2528195</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2630393</v>
+        <v>2633941</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7533496036426188</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7381513505442646</v>
+        <v>0.7383172967425997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.768162478875028</v>
+        <v>0.7691986847312605</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2301</v>
@@ -4769,19 +4769,19 @@
         <v>2478488</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2425355</v>
+        <v>2428200</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2536895</v>
+        <v>2536488</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6967241726563036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6817878818289745</v>
+        <v>0.6825877900952059</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7131428146091759</v>
+        <v>0.7130282903714404</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4711</v>
@@ -4790,19 +4790,19 @@
         <v>5058157</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4968199</v>
+        <v>4978688</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5127263</v>
+        <v>5135966</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7244972082652918</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7116121693523353</v>
+        <v>0.7131146655343058</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7343954494966379</v>
+        <v>0.735642104324037</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>89212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73447</v>
+        <v>73607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106604</v>
+        <v>105742</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3036882698691487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2500218966594378</v>
+        <v>0.2505681869651898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.362892029379238</v>
+        <v>0.3599588636566076</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -5159,19 +5159,19 @@
         <v>100151</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84207</v>
+        <v>83721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116590</v>
+        <v>115994</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3469003591145274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2916750835710134</v>
+        <v>0.2899914708395506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4038417014374748</v>
+        <v>0.4017767912127054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -5180,19 +5180,19 @@
         <v>189363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165747</v>
+        <v>167725</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213322</v>
+        <v>213364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3251066919183949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2845617756421046</v>
+        <v>0.2879582315065854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.366241432217941</v>
+        <v>0.3663124338083634</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>204549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>187157</v>
+        <v>188019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220314</v>
+        <v>220154</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6963117301308513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.637107970620762</v>
+        <v>0.6400411363433924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7499781033405623</v>
+        <v>0.7494318130348101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -5230,19 +5230,19 @@
         <v>188552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172113</v>
+        <v>172709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204496</v>
+        <v>204982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6530996408854726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.596158298562526</v>
+        <v>0.5982232087872947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7083249164289868</v>
+        <v>0.7100085291604494</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>365</v>
@@ -5251,19 +5251,19 @@
         <v>393101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>369142</v>
+        <v>369100</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416717</v>
+        <v>414739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6748933080816051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.633758567782059</v>
+        <v>0.6336875661916366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7154382243578953</v>
+        <v>0.7120417684934146</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>142294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122913</v>
+        <v>121375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164923</v>
+        <v>164217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2831291573184438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2445660459710137</v>
+        <v>0.2415067809071274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3281555520530362</v>
+        <v>0.3267504490493717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -5376,19 +5376,19 @@
         <v>169172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147007</v>
+        <v>147980</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192615</v>
+        <v>191513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3234119491870585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2810382882944092</v>
+        <v>0.2828997712139896</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3682300780411787</v>
+        <v>0.3661223081114784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>293</v>
@@ -5397,19 +5397,19 @@
         <v>311465</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>282131</v>
+        <v>278390</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>343675</v>
+        <v>342608</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3036732918449025</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.275072439255336</v>
+        <v>0.2714259059703235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3350768180398194</v>
+        <v>0.334036502904958</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>360281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>337652</v>
+        <v>338358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>379662</v>
+        <v>381200</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7168708426815562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6718444479469639</v>
+        <v>0.6732495509506286</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7554339540289863</v>
+        <v>0.7584932190928726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>323</v>
@@ -5447,19 +5447,19 @@
         <v>353912</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330469</v>
+        <v>331571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>376077</v>
+        <v>375104</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6765880508129415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6317699219588213</v>
+        <v>0.6338776918885213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.718961711705591</v>
+        <v>0.7171002287860104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>666</v>
@@ -5468,19 +5468,19 @@
         <v>714194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>681984</v>
+        <v>683051</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743528</v>
+        <v>747269</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6963267081550976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6649231819601806</v>
+        <v>0.6659634970950419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.724927560744664</v>
+        <v>0.7285740940296765</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>94794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80131</v>
+        <v>78181</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112129</v>
+        <v>111004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2975650217227039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2515360148070854</v>
+        <v>0.2454153435780257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3519817025883813</v>
+        <v>0.3484503068907356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -5593,19 +5593,19 @@
         <v>104902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87247</v>
+        <v>89016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123545</v>
+        <v>122270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3119215505915082</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2594245010985675</v>
+        <v>0.264686094315452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3673559359079592</v>
+        <v>0.3635635242543875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>201</v>
@@ -5614,19 +5614,19 @@
         <v>199696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176135</v>
+        <v>178592</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222665</v>
+        <v>225264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3049377833515915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2689602516727373</v>
+        <v>0.2727113305929207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3400114384879656</v>
+        <v>0.3439801641229855</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>223771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>206436</v>
+        <v>207561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>238434</v>
+        <v>240384</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7024349782772962</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6480182974116189</v>
+        <v>0.6515496931092644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7484639851929145</v>
+        <v>0.7545846564219743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -5664,19 +5664,19 @@
         <v>231407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212764</v>
+        <v>214039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>249062</v>
+        <v>247293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6880784494084918</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6326440640920408</v>
+        <v>0.6364364757456124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7405754989014325</v>
+        <v>0.735313905684548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>466</v>
@@ -5685,19 +5685,19 @@
         <v>455178</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>432209</v>
+        <v>429610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478739</v>
+        <v>476282</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6950622166484085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6599885615120343</v>
+        <v>0.6560198358770144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7310397483272626</v>
+        <v>0.7272886694070793</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>114201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97660</v>
+        <v>98084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133746</v>
+        <v>134099</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3086800465380083</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2639708527605069</v>
+        <v>0.2651187427159408</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3615115352322368</v>
+        <v>0.3624647017455389</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -5810,19 +5810,19 @@
         <v>146663</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>127417</v>
+        <v>125817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167397</v>
+        <v>166830</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3786983281069563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3290017014439403</v>
+        <v>0.3248712887451969</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4322339456215862</v>
+        <v>0.4307702892843573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -5831,19 +5831,19 @@
         <v>260864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235997</v>
+        <v>235705</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>289595</v>
+        <v>286400</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.344489881684293</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.311651133626911</v>
+        <v>0.3112655064282038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3824318097575926</v>
+        <v>0.3782118310657994</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>255763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>236218</v>
+        <v>235865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272304</v>
+        <v>271880</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6913199534619917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6384884647677633</v>
+        <v>0.6375352982544611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7360291472394932</v>
+        <v>0.7348812572840591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>221</v>
@@ -5881,19 +5881,19 @@
         <v>240620</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219886</v>
+        <v>220453</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259866</v>
+        <v>261466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6213016718930437</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.567766054378414</v>
+        <v>0.5692297107156428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.67099829855606</v>
+        <v>0.6751287112548031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>468</v>
@@ -5902,19 +5902,19 @@
         <v>496383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>467652</v>
+        <v>470847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>521250</v>
+        <v>521542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.655510118315707</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6175681902424074</v>
+        <v>0.6217881689342003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6883488663730888</v>
+        <v>0.6887344935717959</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>34601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24413</v>
+        <v>24749</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45669</v>
+        <v>45697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1638160960561486</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1155802302174503</v>
+        <v>0.1171727763821933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2162158136105438</v>
+        <v>0.2163476417819609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -6027,19 +6027,19 @@
         <v>56423</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44670</v>
+        <v>44564</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70344</v>
+        <v>69892</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2581278863433189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2043579267619647</v>
+        <v>0.20387469300629</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3218129005757311</v>
+        <v>0.3197457690306221</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -6048,19 +6048,19 @@
         <v>91025</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75246</v>
+        <v>76630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108101</v>
+        <v>108089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.21178014369374</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1750687854467414</v>
+        <v>0.1782888361695083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2515098749269224</v>
+        <v>0.2514812329360736</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>176620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165552</v>
+        <v>165524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186808</v>
+        <v>186472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8361839039438513</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.783784186389456</v>
+        <v>0.7836523582180389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8844197697825497</v>
+        <v>0.8828272236178066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -6098,19 +6098,19 @@
         <v>162164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148243</v>
+        <v>148695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173917</v>
+        <v>174023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.741872113656681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6781870994242688</v>
+        <v>0.6802542309693776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7956420732380353</v>
+        <v>0.79612530699371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>344</v>
@@ -6119,19 +6119,19 @@
         <v>338783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321707</v>
+        <v>321719</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>354562</v>
+        <v>353178</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.78821985630626</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7484901250730776</v>
+        <v>0.7485187670639265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8249312145532588</v>
+        <v>0.8217111638304917</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>93905</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79297</v>
+        <v>78068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109280</v>
+        <v>109777</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3568849696127764</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3013699310655722</v>
+        <v>0.2966966108089844</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.415318681458915</v>
+        <v>0.4172088569447269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -6244,19 +6244,19 @@
         <v>112797</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96119</v>
+        <v>97942</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>129524</v>
+        <v>129639</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4130026925113439</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.351935421644486</v>
+        <v>0.358609899401068</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4742454014207854</v>
+        <v>0.4746675479833238</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>203</v>
@@ -6265,19 +6265,19 @@
         <v>206702</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183572</v>
+        <v>184566</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227653</v>
+        <v>229958</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3854666664056978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3423330812699882</v>
+        <v>0.3441860743540332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4245368580832755</v>
+        <v>0.4288358904649081</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>169218</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153843</v>
+        <v>153346</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>183826</v>
+        <v>185055</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6431150303872236</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5846813185410854</v>
+        <v>0.5827911430552731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6986300689344279</v>
+        <v>0.7033033891910156</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>151</v>
@@ -6315,19 +6315,19 @@
         <v>160318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143591</v>
+        <v>143476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176996</v>
+        <v>175173</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5869973074886561</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5257545985792146</v>
+        <v>0.5253324520166761</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.648064578355514</v>
+        <v>0.6413901005989319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>319</v>
@@ -6336,19 +6336,19 @@
         <v>329536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>308585</v>
+        <v>306280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>352666</v>
+        <v>351672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6145333335943022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5754631419167244</v>
+        <v>0.5711641095350919</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6576669187300116</v>
+        <v>0.6558139256459669</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>185184</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162101</v>
+        <v>161597</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211339</v>
+        <v>211107</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2820523459812257</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2468955614097579</v>
+        <v>0.2461275610039241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3218887522090193</v>
+        <v>0.3215352740170044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>241</v>
@@ -6461,19 +6461,19 @@
         <v>256857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>229755</v>
+        <v>232077</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>280882</v>
+        <v>282676</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3715592014311229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3323544290786305</v>
+        <v>0.3357142572341065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4063127488368871</v>
+        <v>0.4089089240512587</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>401</v>
@@ -6482,19 +6482,19 @@
         <v>442040</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>409330</v>
+        <v>407687</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>479241</v>
+        <v>476948</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3279591312115909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3036904613240382</v>
+        <v>0.3024719749832855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3555592764094363</v>
+        <v>0.3538582026728569</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>471374</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>445219</v>
+        <v>445451</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>494457</v>
+        <v>494961</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7179476540187743</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6781112477909806</v>
+        <v>0.6784647259829952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7531044385902421</v>
+        <v>0.7538724389960758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>405</v>
@@ -6532,19 +6532,19 @@
         <v>434437</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>410412</v>
+        <v>408618</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>461539</v>
+        <v>459217</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6284407985688771</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5936872511631128</v>
+        <v>0.5910910759487412</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6676455709213693</v>
+        <v>0.6642857427658935</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>825</v>
@@ -6553,19 +6553,19 @@
         <v>905812</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>868611</v>
+        <v>870904</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>938522</v>
+        <v>940165</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6720408687884092</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6444407235905633</v>
+        <v>0.6461417973271426</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6963095386759615</v>
+        <v>0.6975280250167136</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>232158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>206307</v>
+        <v>206150</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>257434</v>
+        <v>258750</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2981803750541878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2649772748729306</v>
+        <v>0.2647753466341118</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3306441468152019</v>
+        <v>0.3323343954190531</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -6678,19 +6678,19 @@
         <v>277205</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>251966</v>
+        <v>250251</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305028</v>
+        <v>307369</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3355315299276256</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3049823671017461</v>
+        <v>0.3029065223653445</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3692089873177281</v>
+        <v>0.3720422146711951</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>476</v>
@@ -6699,19 +6699,19 @@
         <v>509363</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>470400</v>
+        <v>474760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>546321</v>
+        <v>548942</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3174097202270223</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2931297272478576</v>
+        <v>0.2958467664587858</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3404401443279407</v>
+        <v>0.3420731302124552</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>546425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>521149</v>
+        <v>519833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>572276</v>
+        <v>572433</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7018196249458122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6693558531847981</v>
+        <v>0.6676656045809469</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7350227251270701</v>
+        <v>0.735224653365888</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>500</v>
@@ -6749,19 +6749,19 @@
         <v>548962</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>521139</v>
+        <v>518798</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>574201</v>
+        <v>575916</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6644684700723744</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6307910126822719</v>
+        <v>0.627957785328805</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6950176328982539</v>
+        <v>0.6970934776346555</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1029</v>
@@ -6770,19 +6770,19 @@
         <v>1095387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1058429</v>
+        <v>1055808</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1134350</v>
+        <v>1129990</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6825902797729777</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6595598556720599</v>
+        <v>0.6579268697875453</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7068702727521429</v>
+        <v>0.7041532335412142</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>986348</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>927321</v>
+        <v>928370</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1036068</v>
+        <v>1042026</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2905851334820868</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2731954458661593</v>
+        <v>0.273504566048816</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3052331684306099</v>
+        <v>0.3069882479398203</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1166</v>
@@ -6895,19 +6895,19 @@
         <v>1224171</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1161785</v>
+        <v>1164912</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1280306</v>
+        <v>1279702</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3453677779255916</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3277673772082697</v>
+        <v>0.3286494590928967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3612048436963857</v>
+        <v>0.3610344806913924</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2087</v>
@@ -6916,19 +6916,19 @@
         <v>2210518</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2143091</v>
+        <v>2135143</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2291761</v>
+        <v>2291162</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3185693382328801</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3088520135854333</v>
+        <v>0.3077066819442409</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3302777088968096</v>
+        <v>0.3301913615362504</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2408002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2358282</v>
+        <v>2352324</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2467029</v>
+        <v>2465980</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7094148665179132</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6947668315693897</v>
+        <v>0.6930117520601796</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7268045541338406</v>
+        <v>0.726495433951184</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2172</v>
@@ -6966,19 +6966,19 @@
         <v>2320371</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2264236</v>
+        <v>2264840</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2382757</v>
+        <v>2379630</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6546322220744083</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6387951563036138</v>
+        <v>0.6389655193086079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6722326227917301</v>
+        <v>0.6713505409071034</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4482</v>
@@ -6987,19 +6987,19 @@
         <v>4728374</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4647131</v>
+        <v>4647730</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4795801</v>
+        <v>4803749</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6814306617671199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6697222911031903</v>
+        <v>0.6698086384637496</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6911479864145665</v>
+        <v>0.6922933180557591</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>111142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94894</v>
+        <v>94359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129112</v>
+        <v>129918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.348575926981871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2976193663196701</v>
+        <v>0.2959407578436959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.404936372924643</v>
+        <v>0.4074656865292307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -7356,19 +7356,19 @@
         <v>118810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105652</v>
+        <v>104142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133935</v>
+        <v>131873</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3771623336029525</v>
+        <v>0.3771623336029524</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3353910298175621</v>
+        <v>0.330596736069093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4251746433509705</v>
+        <v>0.4186287877678294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>317</v>
@@ -7377,19 +7377,19 @@
         <v>229952</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206961</v>
+        <v>209551</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252752</v>
+        <v>254362</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3627826539474224</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3265108813429231</v>
+        <v>0.3305970175280858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3987534533251036</v>
+        <v>0.4012931794035518</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>207703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189733</v>
+        <v>188927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223951</v>
+        <v>224486</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.651424073018129</v>
+        <v>0.6514240730181291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5950636270753571</v>
+        <v>0.5925343134707691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7023806336803301</v>
+        <v>0.7040592421563041</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>336</v>
@@ -7427,19 +7427,19 @@
         <v>196201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>181076</v>
+        <v>183138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>209359</v>
+        <v>210869</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6228376663970477</v>
+        <v>0.6228376663970476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5748253566490296</v>
+        <v>0.5813712122321706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6646089701824378</v>
+        <v>0.6694032639309067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>551</v>
@@ -7448,19 +7448,19 @@
         <v>403904</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381104</v>
+        <v>379494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426895</v>
+        <v>424305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6372173460525775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6012465466748963</v>
+        <v>0.5987068205964482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6734891186570769</v>
+        <v>0.6694029824719141</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>125554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101296</v>
+        <v>103254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153333</v>
+        <v>153952</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.237018224343322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.191225105839156</v>
+        <v>0.194922160469319</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.289460600907985</v>
+        <v>0.2906284378447533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -7573,19 +7573,19 @@
         <v>145638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126921</v>
+        <v>127705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165346</v>
+        <v>165987</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2680080526805931</v>
+        <v>0.268008052680593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2335649655409371</v>
+        <v>0.235008091655106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3042752052294961</v>
+        <v>0.3054550124554207</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -7594,19 +7594,19 @@
         <v>271191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241386</v>
+        <v>238774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304547</v>
+        <v>301934</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2527107570131982</v>
+        <v>0.2527107570131981</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2249364966688911</v>
+        <v>0.2225027776541069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2837933448897466</v>
+        <v>0.2813580680557775</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>404167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>376388</v>
+        <v>375769</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>428425</v>
+        <v>426467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.762981775656678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7105393990920151</v>
+        <v>0.7093715621552469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.808774894160844</v>
+        <v>0.805077839530681</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>524</v>
@@ -7644,19 +7644,19 @@
         <v>397770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>378062</v>
+        <v>377421</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416487</v>
+        <v>415703</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.731991947319407</v>
+        <v>0.7319919473194068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6957247947705039</v>
+        <v>0.6945449875445794</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7664350344590628</v>
+        <v>0.7649919083448941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>819</v>
@@ -7665,19 +7665,19 @@
         <v>801938</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>768582</v>
+        <v>771195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>831743</v>
+        <v>834355</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7472892429868019</v>
+        <v>0.7472892429868017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7162066551102534</v>
+        <v>0.7186419319442224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7750635033311088</v>
+        <v>0.777497222345893</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>65149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52259</v>
+        <v>52962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81021</v>
+        <v>80163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.207737807131063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1666367697823636</v>
+        <v>0.1688773391202226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2583492020152379</v>
+        <v>0.2556117709343427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -7790,19 +7790,19 @@
         <v>108425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94249</v>
+        <v>92565</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125353</v>
+        <v>122706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.305315419506914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2653988444345434</v>
+        <v>0.2606571512096115</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3529838232483256</v>
+        <v>0.3455321332461168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -7811,19 +7811,19 @@
         <v>173573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151712</v>
+        <v>151923</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194659</v>
+        <v>192935</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.259555235207849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2268645606556686</v>
+        <v>0.2271799031786164</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2910855600746281</v>
+        <v>0.2885076138907045</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>248462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232590</v>
+        <v>233448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>261352</v>
+        <v>260649</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7922621928689371</v>
+        <v>0.7922621928689372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.741650797984762</v>
+        <v>0.7443882290656573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8333632302176361</v>
+        <v>0.8311226608797774</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>380</v>
@@ -7861,19 +7861,19 @@
         <v>246698</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229770</v>
+        <v>232417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>260874</v>
+        <v>262558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6946845804930859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6470161767516742</v>
+        <v>0.6544678667538831</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7346011555654565</v>
+        <v>0.7393428487903885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>662</v>
@@ -7882,19 +7882,19 @@
         <v>495160</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>474074</v>
+        <v>475798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>517021</v>
+        <v>516810</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7404447647921509</v>
+        <v>0.740444764792151</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7089144399253717</v>
+        <v>0.7114923861092953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.773135439344331</v>
+        <v>0.7728200968213838</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>135071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110733</v>
+        <v>111555</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161072</v>
+        <v>161549</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3625484657016651</v>
+        <v>0.3625484657016652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2972217710262519</v>
+        <v>0.2994277754407784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4323396617696958</v>
+        <v>0.4336192082371939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -8007,19 +8007,19 @@
         <v>179968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159999</v>
+        <v>160652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>199705</v>
+        <v>199227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.431149342894629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3833099157216096</v>
+        <v>0.384872517375893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.478433673493379</v>
+        <v>0.477288609232365</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>330</v>
@@ -8028,19 +8028,19 @@
         <v>315039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>281699</v>
+        <v>283428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>344472</v>
+        <v>349379</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3987965307620174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3565931464029473</v>
+        <v>0.3587820108042374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.436054636313258</v>
+        <v>0.4422667576611599</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>237488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211487</v>
+        <v>211010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>261826</v>
+        <v>261004</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6374515342983349</v>
+        <v>0.6374515342983351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5676603382303043</v>
+        <v>0.5663807917628061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.702778228973748</v>
+        <v>0.7005722245592217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -8078,19 +8078,19 @@
         <v>237447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217710</v>
+        <v>218188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>257416</v>
+        <v>256763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.568850657105371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5215663265066209</v>
+        <v>0.5227113907676351</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6166900842783903</v>
+        <v>0.615127482624107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>552</v>
@@ -8099,19 +8099,19 @@
         <v>474935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>445502</v>
+        <v>440595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>508275</v>
+        <v>506546</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6012034692379826</v>
+        <v>0.6012034692379827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.563945363686742</v>
+        <v>0.5577332423388397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6434068535970529</v>
+        <v>0.6412179891957623</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>23839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16690</v>
+        <v>16542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31672</v>
+        <v>33113</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1159113696752928</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08114998765710722</v>
+        <v>0.08043200540506652</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1539999125985427</v>
+        <v>0.1610065298042935</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -8224,19 +8224,19 @@
         <v>39029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31415</v>
+        <v>31370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47390</v>
+        <v>47381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1737964475511135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1398904897489867</v>
+        <v>0.1396937873960198</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2110316766260655</v>
+        <v>0.2109893147126078</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -8245,19 +8245,19 @@
         <v>62868</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52139</v>
+        <v>53088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74997</v>
+        <v>75249</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1461253575967436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1211897724816054</v>
+        <v>0.1233940728309349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1743183794657366</v>
+        <v>0.1749042720518364</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>181826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173993</v>
+        <v>172552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188975</v>
+        <v>189123</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8840886303247071</v>
+        <v>0.8840886303247072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8460000874014575</v>
+        <v>0.8389934701957062</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9188500123428928</v>
+        <v>0.9195679945949332</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>402</v>
@@ -8295,19 +8295,19 @@
         <v>185536</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177175</v>
+        <v>177184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193150</v>
+        <v>193195</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8262035524488867</v>
+        <v>0.8262035524488865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7889683233739347</v>
+        <v>0.7890106852873923</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8601095102510135</v>
+        <v>0.8603062126039803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>649</v>
@@ -8316,19 +8316,19 @@
         <v>367362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>355233</v>
+        <v>354981</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378091</v>
+        <v>377142</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8538746424032566</v>
+        <v>0.8538746424032563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8256816205342633</v>
+        <v>0.8250957279481639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8788102275183947</v>
+        <v>0.8766059271690653</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>62688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49639</v>
+        <v>49827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76854</v>
+        <v>76230</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2315727838786207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1833695628263483</v>
+        <v>0.1840637203641147</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2839017422581689</v>
+        <v>0.2815946195470381</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -8441,19 +8441,19 @@
         <v>74608</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63641</v>
+        <v>62493</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86448</v>
+        <v>85986</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2828751317802651</v>
+        <v>0.282875131780265</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2412945605547057</v>
+        <v>0.2369401871548322</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3277658560134207</v>
+        <v>0.3260138376431405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>199</v>
@@ -8462,19 +8462,19 @@
         <v>137297</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118666</v>
+        <v>121149</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154814</v>
+        <v>154387</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2568900729575828</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2220311580639404</v>
+        <v>0.226676189964218</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2896650335296104</v>
+        <v>0.2888662363478013</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>208019</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193853</v>
+        <v>194477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221068</v>
+        <v>220880</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7684272161213794</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7160982577418312</v>
+        <v>0.7184053804529618</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8166304371736517</v>
+        <v>0.8159362796358852</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -8512,19 +8512,19 @@
         <v>189142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>177302</v>
+        <v>177764</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200109</v>
+        <v>201257</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.717124868219735</v>
+        <v>0.7171248682197348</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6722341439865794</v>
+        <v>0.6739861623568593</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7587054394452943</v>
+        <v>0.7630598128451678</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>632</v>
@@ -8533,19 +8533,19 @@
         <v>397160</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379643</v>
+        <v>380070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>415791</v>
+        <v>413308</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7431099270424173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7103349664703895</v>
+        <v>0.7111337636521983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7779688419360595</v>
+        <v>0.7733238100357818</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>244799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216664</v>
+        <v>217167</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274524</v>
+        <v>275393</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3472299980925508</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3073226521225928</v>
+        <v>0.3080362600777023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3893938770600348</v>
+        <v>0.3906255455544494</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>359</v>
@@ -8658,19 +8658,19 @@
         <v>290847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264778</v>
+        <v>267238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313958</v>
+        <v>317216</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3849733301130819</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.350467041699788</v>
+        <v>0.3537240121901103</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4155634967592396</v>
+        <v>0.4198759151450194</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>560</v>
@@ -8679,19 +8679,19 @@
         <v>535646</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>495524</v>
+        <v>499618</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>574841</v>
+        <v>573561</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3667541432986714</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3392826452328492</v>
+        <v>0.342085899893213</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3935906140891736</v>
+        <v>0.3927147187312083</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>460205</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>430480</v>
+        <v>429611</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>488340</v>
+        <v>487837</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6527700019074493</v>
+        <v>0.652770001907449</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6106061229399652</v>
+        <v>0.6093744544455505</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6926773478774073</v>
+        <v>0.6919637399222975</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>580</v>
@@ -8729,19 +8729,19 @@
         <v>464653</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>441542</v>
+        <v>438284</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>490722</v>
+        <v>488262</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6150266698869181</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5844365032407604</v>
+        <v>0.5801240848549807</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6495329583002121</v>
+        <v>0.6462759878098894</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>966</v>
@@ -8750,19 +8750,19 @@
         <v>924858</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>885663</v>
+        <v>886943</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>964980</v>
+        <v>960886</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6332458567013286</v>
+        <v>0.6332458567013285</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6064093859108266</v>
+        <v>0.607285281268792</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6607173547671511</v>
+        <v>0.6579141001067871</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>154873</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130928</v>
+        <v>133275</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>179498</v>
+        <v>180617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1958581209773138</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.16557588336406</v>
+        <v>0.1685447143475946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2269996069608464</v>
+        <v>0.2284145173520233</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -8875,19 +8875,19 @@
         <v>194606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>171936</v>
+        <v>172314</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>216975</v>
+        <v>216839</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2360874960476391</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2085852788225563</v>
+        <v>0.2090438278803234</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2632239940954224</v>
+        <v>0.2630590022293755</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>385</v>
@@ -8896,19 +8896,19 @@
         <v>349479</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>316909</v>
+        <v>316939</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>384165</v>
+        <v>385646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2163907161735214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1962236184171729</v>
+        <v>0.1962423490118695</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2378674387703445</v>
+        <v>0.2387843885177943</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>635869</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>611244</v>
+        <v>610125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>659814</v>
+        <v>657467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8041418790226862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7730003930391534</v>
+        <v>0.7715854826479761</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.83442411663594</v>
+        <v>0.831455285652405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>809</v>
@@ -8946,19 +8946,19 @@
         <v>629691</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>607322</v>
+        <v>607458</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>652361</v>
+        <v>651983</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7639125039523608</v>
+        <v>0.7639125039523609</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7367760059045777</v>
+        <v>0.7369409977706244</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7914147211774437</v>
+        <v>0.7909561721196767</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1424</v>
@@ -8967,19 +8967,19 @@
         <v>1265560</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1230874</v>
+        <v>1229393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1298130</v>
+        <v>1298100</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7836092838264784</v>
+        <v>0.7836092838264787</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7621325612296554</v>
+        <v>0.7612156114822057</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8037763815828272</v>
+        <v>0.8037576509881309</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>923114</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>867236</v>
+        <v>861390</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>986295</v>
+        <v>986038</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.263231350282072</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2472975019960179</v>
+        <v>0.2456303766533904</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2812477382837679</v>
+        <v>0.2811743732713519</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1577</v>
@@ -9092,19 +9092,19 @@
         <v>1151931</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1100951</v>
+        <v>1103916</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1206436</v>
+        <v>1203617</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3114111219769276</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.297629236745919</v>
+        <v>0.298430897341013</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3261460301444419</v>
+        <v>0.3253839335468214</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2410</v>
@@ -9113,19 +9113,19 @@
         <v>2075045</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2000495</v>
+        <v>2002166</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2158602</v>
+        <v>2160700</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2879638197225129</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2776181553250661</v>
+        <v>0.2778499746953452</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2995594604931634</v>
+        <v>0.2998505155802768</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2583741</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2520560</v>
+        <v>2520817</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2639619</v>
+        <v>2645465</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.736768649717928</v>
+        <v>0.7367686497179282</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7187522617162321</v>
+        <v>0.7188256267286482</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.752702498003982</v>
+        <v>0.7543696233466096</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3736</v>
@@ -9163,19 +9163,19 @@
         <v>2547137</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2492632</v>
+        <v>2495451</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2598117</v>
+        <v>2595152</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6885888780230724</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.673853969855558</v>
+        <v>0.6746160664531786</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7023707632540812</v>
+        <v>0.7015691026589871</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6255</v>
@@ -9184,19 +9184,19 @@
         <v>5130878</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5047321</v>
+        <v>5045223</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5205428</v>
+        <v>5203757</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7120361802774871</v>
+        <v>0.7120361802774872</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7004405395068365</v>
+        <v>0.7001494844197231</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7223818446749338</v>
+        <v>0.7221500253046547</v>
       </c>
     </row>
     <row r="30">
